--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>121562.9933863296</v>
+        <v>21412937.44897242</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121562.9933863296</v>
+        <v>21412937.44897242</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81815.60493683892</v>
+        <v>10329585.67603439</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81815.60493683892</v>
+        <v>10329585.67603439</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608246397.89287</v>
+        <v>53777108.32493539</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12469.4570903136</v>
+        <v>1226065.580843976</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24521.85536979456</v>
+        <v>2375502.062885203</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36552.09167776352</v>
+        <v>3524938.544926429</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50679.643712916</v>
+        <v>4350459.048329986</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63263.63558650189</v>
+        <v>5450072.679679958</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75522.0585466999</v>
+        <v>6578490.600221267</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87662.50308882711</v>
+        <v>7704116.657456543</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99853.59044774828</v>
+        <v>8829742.714691818</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>113939.3182974478</v>
+        <v>9669142.561780993</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>126064.9971505162</v>
+        <v>10847917.48815676</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>137920.2877325654</v>
+        <v>12010730.06830323</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>149861.7924985468</v>
+        <v>13173284.49063141</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>161758.0279021482</v>
+        <v>14335838.91295959</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>175163.2332404221</v>
+        <v>15280931.01714168</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>194814.5593282001</v>
+        <v>15621529.87127398</v>
       </c>
     </row>
   </sheetData>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
